--- a/UI Skill and Mongo DB self-learnings.xlsx
+++ b/UI Skill and Mongo DB self-learnings.xlsx
@@ -24,121 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
-  <si>
-    <t>Week 3-12</t>
-  </si>
-  <si>
-    <t>Basics</t>
-  </si>
-  <si>
-    <t>Self Learning</t>
-  </si>
-  <si>
-    <t>Responsive Web Design Essentials - HTML5 CSS3 Bootstrap</t>
-  </si>
-  <si>
-    <t>Learn how to work with responsive images and icons. and stunning full screen background images and probably one too many gradients.    Learn how to create forms and to choose great fonts for your website.    Learn how to work with Bootstrap 4 to easily add carousels cards and complex looking menus.    Setup a domain name with hosting so that your website is live on the internet for others to see.</t>
-  </si>
-  <si>
-    <t>Udemy</t>
-  </si>
-  <si>
-    <t>https://cognizantlearning.sumtotal.host/core/pillarRedirect?relyingParty=LM&amp;url=app%2fmanagement%2fLMS_ActDetails.aspx%3fActivityId%3d1415481%26UserMode%3d0</t>
-  </si>
-  <si>
-    <t>React</t>
-  </si>
-  <si>
-    <t xml:space="preserve">React JS Web Development - The Essentials Bootcamp </t>
-  </si>
-  <si>
-    <t>Learn React the right and learn best practices. - Dive into the React engine, and learn how it works under the hood. - See how React fits in the big picture of web development. - Learn how to build applications from scratch. - Cover the crucial concepts of bundling and transpiling, and create frontend application build systems.</t>
-  </si>
-  <si>
-    <t>https://cognizantlearning.sumtotal.host/Core/pillarRedirect?relyingParty=LM&amp;url=https:%2F%2FCOGNIZANTLEARNING.sumtotal.host%2Flearning%2Fcore%2Factivitydetails%2FViewActivityDetails%3FUserMode%3D0%26ActivityId%3D1128608%26ClassUnderStruct%3DFalse%26CallerUrl%3D%2Flearning%2Flearner%2FHome%2FGoToPortal%3Fkey%3D0%26SearchCallerURL%3Dhttps%253A%252F%252FCOGNIZANTLEARNING.sumtotal.host%252Fcore%252FsearchRedirect%253FViewType%253DList%2526SearchText%253DReact%25252520JS%25252520Web%25252520Development%25252520-%25252520The%25252520Essentials%25252520Bootcamp%2526startRow%253D0%26SearchCallerID%3D2</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>PS4039</t>
-  </si>
-  <si>
-    <t>AngularJS 2.0</t>
-  </si>
-  <si>
-    <t>In this course, you’ll learn how to install and set up the prerequisite parts for creating an Angular development environment. The course will cover creating an app root module, root component, and also custom components as part of building a basic Angular application.</t>
-  </si>
-  <si>
-    <t>Skillsoft Course</t>
-  </si>
-  <si>
-    <t>https://cognizantlearning.sumtotal.host/Core/pillarRedirect?relyingParty=LM&amp;url=https:%2F%2FCOGNIZANTLEARNING.sumtotal.host%2Flearning%2Fcore%2Factivitydetails%2FViewActivityDetails%3FUserMode%3D0%26ActivityId%3D834688%26ClassUnderStruct%3DFalse%26CallerUrl%3D%2Flearning%2Flearner%2FHome%2FGoToPortal%3Fkey%3D0%26SearchCallerURL%3Dhttps%253A%252F%252FCOGNIZANTLEARNING.sumtotal.host%252Fcore%252FsearchRedirect%253FViewType%253DList%2526SearchText%253DAngularJS%252525202.0%2526startRow%253D0%26SearchCallerID%3D2</t>
-  </si>
-  <si>
-    <t>MongoDB</t>
-  </si>
-  <si>
-    <t>CTHCS091515</t>
-  </si>
-  <si>
-    <t>Mongo DB Developer Essentials[201-Intermediate]</t>
-  </si>
-  <si>
-    <t>"MongoDB is an open-source document database and leading NoSQL database. This tutorial will give you great understanding on MongoDB concepts needed to create and deploy a highly scalable and performance-oriented database Note : This is an external link provides you as the reference material for learning"</t>
-  </si>
-  <si>
-    <t>External Link</t>
-  </si>
-  <si>
-    <t>https://cognizantlearning.sumtotal.host/Core/pillarRedirect?relyingParty=LM&amp;url=https:%2F%2FCOGNIZANTLEARNING.sumtotal.host%2Flearning%2Fcore%2Factivitydetails%2FViewActivityDetails%3FUserMode%3D0%26ActivityId%3D1313627%26ClassUnderStruct%3DFalse%26CallerUrl%3D%2Flearning%2Flearner%2FHome%2FGoToPortal%3Fkey%3D0%26SearchCallerURL%3Dhttps%253A%252F%252FCOGNIZANTLEARNING.sumtotal.host%252Fcore%252FsearchRedirect%253FViewType%253DList%2526SearchText%253DMongo%25252520DB%25252520Developer%25252520Essentials%2525255B201-Intermediate%2525255D%2526startRow%253D0%26SearchCallerID%3D2</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Activity Code</t>
-  </si>
-  <si>
-    <t>Activty Name</t>
-  </si>
-  <si>
-    <t>Activity Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration </t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Node js</t>
-  </si>
-  <si>
-    <t>CTKEG064</t>
-  </si>
-  <si>
-    <t>Frond End Developer - Node JS - CMOOC[101-BASICS]</t>
-  </si>
-  <si>
-    <t>This course will help the associate cover Networked, and WebSocket Applications in node.js, Express app, Optimize and Secure Node.js Applications, and so on.</t>
-  </si>
-  <si>
-    <t>https://cognizantlearning.sumtotal.host/core/pillarRedirect?relyingParty=LM&amp;url=app%2fmanagement%2fLMS_ActDetails.aspx%3fActivityId%3d344469%26UserMode%3d0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <r>
-      <t>Additional Stage : Design Responsive UI (React/Angular/Node with MongoDB)
+      <t>Additional Stage : Design Responsive UI (React/Angular with MongoDB)
 (</t>
     </r>
     <r>
@@ -150,8 +39,104 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Completion of React or Angular or Node with MongoDB learning is mandatory)</t>
+      <t>Completion of React or Angular with MongoDB learning is mandatory)</t>
     </r>
+  </si>
+  <si>
+    <t>Week 3-12</t>
+  </si>
+  <si>
+    <t>Basics</t>
+  </si>
+  <si>
+    <t>Self Learning</t>
+  </si>
+  <si>
+    <t>Responsive Web Design Essentials - HTML5 CSS3 Bootstrap</t>
+  </si>
+  <si>
+    <t>Learn how to work with responsive images and icons. and stunning full screen background images and probably one too many gradients.    Learn how to create forms and to choose great fonts for your website.    Learn how to work with Bootstrap 4 to easily add carousels cards and complex looking menus.    Setup a domain name with hosting so that your website is live on the internet for others to see.</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>https://cognizantlearning.sumtotal.host/core/pillarRedirect?relyingParty=LM&amp;url=app%2fmanagement%2fLMS_ActDetails.aspx%3fActivityId%3d1415481%26UserMode%3d0</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React JS Web Development - The Essentials Bootcamp </t>
+  </si>
+  <si>
+    <t>Learn React the right and learn best practices. - Dive into the React engine, and learn how it works under the hood. - See how React fits in the big picture of web development. - Learn how to build applications from scratch. - Cover the crucial concepts of bundling and transpiling, and create frontend application build systems.</t>
+  </si>
+  <si>
+    <t>https://cognizantlearning.sumtotal.host/Core/pillarRedirect?relyingParty=LM&amp;url=https:%2F%2FCOGNIZANTLEARNING.sumtotal.host%2Flearning%2Fcore%2Factivitydetails%2FViewActivityDetails%3FUserMode%3D0%26ActivityId%3D1128608%26ClassUnderStruct%3DFalse%26CallerUrl%3D%2Flearning%2Flearner%2FHome%2FGoToPortal%3Fkey%3D0%26SearchCallerURL%3Dhttps%253A%252F%252FCOGNIZANTLEARNING.sumtotal.host%252Fcore%252FsearchRedirect%253FViewType%253DList%2526SearchText%253DReact%25252520JS%25252520Web%25252520Development%25252520-%25252520The%25252520Essentials%25252520Bootcamp%2526startRow%253D0%26SearchCallerID%3D2</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>PS4039</t>
+  </si>
+  <si>
+    <t>AngularJS 2.0</t>
+  </si>
+  <si>
+    <t>In this course, you’ll learn how to install and set up the prerequisite parts for creating an Angular development environment. The course will cover creating an app root module, root component, and also custom components as part of building a basic Angular application.</t>
+  </si>
+  <si>
+    <t>Skillsoft Course</t>
+  </si>
+  <si>
+    <t>https://cognizantlearning.sumtotal.host/Core/pillarRedirect?relyingParty=LM&amp;url=https:%2F%2FCOGNIZANTLEARNING.sumtotal.host%2Flearning%2Fcore%2Factivitydetails%2FViewActivityDetails%3FUserMode%3D0%26ActivityId%3D834688%26ClassUnderStruct%3DFalse%26CallerUrl%3D%2Flearning%2Flearner%2FHome%2FGoToPortal%3Fkey%3D0%26SearchCallerURL%3Dhttps%253A%252F%252FCOGNIZANTLEARNING.sumtotal.host%252Fcore%252FsearchRedirect%253FViewType%253DList%2526SearchText%253DAngularJS%252525202.0%2526startRow%253D0%26SearchCallerID%3D2</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>CTHCS091515</t>
+  </si>
+  <si>
+    <t>Mongo DB Developer Essentials[201-Intermediate]</t>
+  </si>
+  <si>
+    <t>"MongoDB is an open-source document database and leading NoSQL database. This tutorial will give you great understanding on MongoDB concepts needed to create and deploy a highly scalable and performance-oriented database Note : This is an external link provides you as the reference material for learning"</t>
+  </si>
+  <si>
+    <t>External Link</t>
+  </si>
+  <si>
+    <t>https://cognizantlearning.sumtotal.host/Core/pillarRedirect?relyingParty=LM&amp;url=https:%2F%2FCOGNIZANTLEARNING.sumtotal.host%2Flearning%2Fcore%2Factivitydetails%2FViewActivityDetails%3FUserMode%3D0%26ActivityId%3D1313627%26ClassUnderStruct%3DFalse%26CallerUrl%3D%2Flearning%2Flearner%2FHome%2FGoToPortal%3Fkey%3D0%26SearchCallerURL%3Dhttps%253A%252F%252FCOGNIZANTLEARNING.sumtotal.host%252Fcore%252FsearchRedirect%253FViewType%253DList%2526SearchText%253DMongo%25252520DB%25252520Developer%25252520Essentials%2525255B201-Intermediate%2525255D%2526startRow%253D0%26SearchCallerID%3D2</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Activity Code</t>
+  </si>
+  <si>
+    <t>Activty Name</t>
+  </si>
+  <si>
+    <t>Activity Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration </t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -263,8 +248,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,27 +279,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,11 +560,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="91.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -603,191 +577,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
         <v>2459618</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4">
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8">
         <v>16.53</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>6</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
         <v>1078522</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6">
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10">
         <v>10.82</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>10</v>
+      <c r="H4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4">
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="I5" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="13">
-        <v>15</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
+    <row r="6" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="6">
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="10">
         <v>6</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>22</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I7" display="https://cognizantlearning.sumtotal.host/Core/pillarRedirect?relyingParty=LM&amp;url=https:%2F%2FCOGNIZANTLEARNING.sumtotal.host%2Flearning%2Fcore%2Factivitydetails%2FViewActivityDetails%3FUserMode%3D0%26ActivityId%3D1313627%26ClassUnderStruct%3DFalse%26Caller"/>
+    <hyperlink ref="I6" display="https://cognizantlearning.sumtotal.host/Core/pillarRedirect?relyingParty=LM&amp;url=https:%2F%2FCOGNIZANTLEARNING.sumtotal.host%2Flearning%2Fcore%2Factivitydetails%2FViewActivityDetails%3FUserMode%3D0%26ActivityId%3D1313627%26ClassUnderStruct%3DFalse%26Caller"/>
     <hyperlink ref="I5" display="https://cognizantlearning.sumtotal.host/Core/pillarRedirect?relyingParty=LM&amp;url=https:%2F%2FCOGNIZANTLEARNING.sumtotal.host%2Flearning%2Fcore%2Factivitydetails%2FViewActivityDetails%3FUserMode%3D0%26ActivityId%3D834688%26ClassUnderStruct%3DFalse%26CallerU"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
